--- a/CaseStudy/Export/Descriptive_statistics_after.xlsx
+++ b/CaseStudy/Export/Descriptive_statistics_after.xlsx
@@ -668,82 +668,82 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>2.054054321441783</v>
+        <v>2.060212325831055</v>
       </c>
       <c r="D3" t="n">
-        <v>0.2571454091509801</v>
+        <v>0.2588469764144648</v>
       </c>
       <c r="E3" t="n">
-        <v>16.65125453462333</v>
+        <v>16.7452803237807</v>
       </c>
       <c r="F3" t="n">
-        <v>0.08122861437162916</v>
+        <v>0.08140595280660937</v>
       </c>
       <c r="G3" t="n">
-        <v>0.8678839536206263</v>
+        <v>0.8753541761367931</v>
       </c>
       <c r="H3" t="n">
-        <v>0.2409492837131873</v>
+        <v>0.2432675180782863</v>
       </c>
       <c r="I3" t="n">
-        <v>1.013818606639332</v>
+        <v>1.01384240978964</v>
       </c>
       <c r="J3" t="n">
-        <v>0.07491702358159354</v>
+        <v>0.07586780726993035</v>
       </c>
       <c r="K3" t="n">
-        <v>0.02700251244343123</v>
+        <v>0.02725936972721917</v>
       </c>
       <c r="L3" t="n">
-        <v>0.006528311293062833</v>
+        <v>0.006594407686940655</v>
       </c>
       <c r="M3" t="n">
-        <v>1.090775725988785</v>
+        <v>1.091113770173282</v>
       </c>
       <c r="N3" t="n">
-        <v>0.703750537233205</v>
+        <v>0.7046415380315042</v>
       </c>
       <c r="O3" t="n">
-        <v>0.05519938096595634</v>
+        <v>0.05567427921688935</v>
       </c>
       <c r="P3" t="n">
-        <v>0.91319676235714</v>
+        <v>0.9135709018776893</v>
       </c>
       <c r="Q3" t="n">
-        <v>2.770927430759383</v>
+        <v>2.794641307756593</v>
       </c>
       <c r="R3" t="n">
-        <v>0.4412976212064333</v>
+        <v>0.4446435004895158</v>
       </c>
       <c r="S3" t="n">
-        <v>0.5580152989875006</v>
+        <v>0.5562793833569051</v>
       </c>
       <c r="T3" t="n">
-        <v>17.71037983215905</v>
+        <v>17.75520406003884</v>
       </c>
       <c r="U3" t="n">
-        <v>1.09973078337288</v>
+        <v>1.099532534937691</v>
       </c>
       <c r="V3" t="n">
-        <v>0.006328761610046073</v>
+        <v>0.006351081418388066</v>
       </c>
       <c r="W3" t="n">
-        <v>3.530447291198872</v>
+        <v>3.555488998915005</v>
       </c>
       <c r="X3" t="n">
-        <v>1.094927619684987</v>
+        <v>1.095701494630482</v>
       </c>
       <c r="Y3" t="n">
-        <v>1.101299980765351</v>
+        <v>1.102630580843014</v>
       </c>
       <c r="Z3" t="n">
-        <v>0.8608225309099636</v>
+        <v>0.8578174539458353</v>
       </c>
       <c r="AA3" t="n">
-        <v>0.7234978554161681</v>
+        <v>0.7161892187243047</v>
       </c>
       <c r="AB3" t="n">
-        <v>0.1012329863358476</v>
+        <v>0.1047349021885333</v>
       </c>
     </row>
     <row r="4">
@@ -756,82 +756,82 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>2.108284907366943</v>
+        <v>2.110647760214765</v>
       </c>
       <c r="D4" t="n">
-        <v>0.2595449098413525</v>
+        <v>0.2624815027075525</v>
       </c>
       <c r="E4" t="n">
-        <v>7.756561592332957</v>
+        <v>7.867090900913953</v>
       </c>
       <c r="F4" t="n">
-        <v>0.04797474753572138</v>
+        <v>0.04810916591252352</v>
       </c>
       <c r="G4" t="n">
-        <v>0.3146191009448752</v>
+        <v>0.3191515976707512</v>
       </c>
       <c r="H4" t="n">
-        <v>0.1945570439922118</v>
+        <v>0.1967133298503587</v>
       </c>
       <c r="I4" t="n">
-        <v>0.01954457353630076</v>
+        <v>0.01970508800666064</v>
       </c>
       <c r="J4" t="n">
-        <v>0.06606708856985781</v>
+        <v>0.06684035475726155</v>
       </c>
       <c r="K4" t="n">
-        <v>0.02280154144187996</v>
+        <v>0.0229265325031809</v>
       </c>
       <c r="L4" t="n">
-        <v>0.006995518259605644</v>
+        <v>0.007105855013180443</v>
       </c>
       <c r="M4" t="n">
-        <v>0.1334141133128885</v>
+        <v>0.1359119643757823</v>
       </c>
       <c r="N4" t="n">
-        <v>0.1399591088930793</v>
+        <v>0.1409556837859069</v>
       </c>
       <c r="O4" t="n">
-        <v>0.02072144427854295</v>
+        <v>0.02109606551634901</v>
       </c>
       <c r="P4" t="n">
-        <v>0.2339830509097039</v>
+        <v>0.2344499222932843</v>
       </c>
       <c r="Q4" t="n">
-        <v>1.622121407592299</v>
+        <v>1.659778289102021</v>
       </c>
       <c r="R4" t="n">
-        <v>0.6145537594305277</v>
+        <v>0.6173373978068968</v>
       </c>
       <c r="S4" t="n">
-        <v>0.3681463341741949</v>
+        <v>0.3711291324602415</v>
       </c>
       <c r="T4" t="n">
-        <v>7.044127008876523</v>
+        <v>7.121067682073735</v>
       </c>
       <c r="U4" t="n">
-        <v>0.1089956769719204</v>
+        <v>0.1113141147970109</v>
       </c>
       <c r="V4" t="n">
-        <v>0.008128981593690012</v>
+        <v>0.008150180106324026</v>
       </c>
       <c r="W4" t="n">
-        <v>7.074223361611895</v>
+        <v>7.107474169288428</v>
       </c>
       <c r="X4" t="n">
-        <v>0.147968529172972</v>
+        <v>0.1509557610861934</v>
       </c>
       <c r="Y4" t="n">
-        <v>0.09095800510208911</v>
+        <v>0.09271702470766359</v>
       </c>
       <c r="Z4" t="n">
-        <v>0.1884035969967888</v>
+        <v>0.1909253807348212</v>
       </c>
       <c r="AA4" t="n">
-        <v>0.3058953432619939</v>
+        <v>0.310767823829261</v>
       </c>
       <c r="AB4" t="n">
-        <v>0.1440527792597527</v>
+        <v>0.146595056111698</v>
       </c>
     </row>
     <row r="5">
@@ -932,82 +932,82 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>0.5267756176268785</v>
+        <v>0.5255936383813793</v>
       </c>
       <c r="D6" t="n">
-        <v>0.07822359826477222</v>
+        <v>0.07173152650335843</v>
       </c>
       <c r="E6" t="n">
-        <v>11.51750413025712</v>
+        <v>11.28966630577708</v>
       </c>
       <c r="F6" t="n">
-        <v>0.0469350896733532</v>
+        <v>0.04678459046672405</v>
       </c>
       <c r="G6" t="n">
-        <v>0.6634188878144115</v>
+        <v>0.6552113123938375</v>
       </c>
       <c r="H6" t="n">
-        <v>0.1061369368682553</v>
+        <v>0.1018153115576722</v>
       </c>
       <c r="I6" t="n">
-        <v>1.000984912918365</v>
+        <v>1.000585593299625</v>
       </c>
       <c r="J6" t="n">
-        <v>0.03160270080411057</v>
+        <v>0.03023985154910755</v>
       </c>
       <c r="K6" t="n">
-        <v>0.01102629374813608</v>
+        <v>0.01090489742928867</v>
       </c>
       <c r="L6" t="n">
-        <v>0.002072540431912175</v>
+        <v>0.001802125114528825</v>
       </c>
       <c r="M6" t="n">
-        <v>1.009509629036553</v>
+        <v>1.002205083021215</v>
       </c>
       <c r="N6" t="n">
-        <v>0.6089208233175698</v>
+        <v>0.6068568390550863</v>
       </c>
       <c r="O6" t="n">
-        <v>0.0418698842324739</v>
+        <v>0.04125456265345093</v>
       </c>
       <c r="P6" t="n">
-        <v>0.7486344413595796</v>
+        <v>0.7477285009359145</v>
       </c>
       <c r="Q6" t="n">
-        <v>1.793100179408185</v>
+        <v>1.697131616155096</v>
       </c>
       <c r="R6" t="n">
-        <v>0.01719243697931175</v>
+        <v>0.01278972219162117</v>
       </c>
       <c r="S6" t="n">
-        <v>0.28568813946979</v>
+        <v>0.2786855888580195</v>
       </c>
       <c r="T6" t="n">
-        <v>12.92039452781573</v>
+        <v>12.75862128683323</v>
       </c>
       <c r="U6" t="n">
-        <v>1.034761688708335</v>
+        <v>1.027136105867667</v>
       </c>
       <c r="V6" t="n">
-        <v>0.0007440473818576947</v>
+        <v>0.0007212666669589455</v>
       </c>
       <c r="W6" t="n">
-        <v>-1.35675913787432</v>
+        <v>-1.423605182856175</v>
       </c>
       <c r="X6" t="n">
-        <v>1.005560707792573</v>
+        <v>0.9969773635064885</v>
       </c>
       <c r="Y6" t="n">
-        <v>1.044482864656407</v>
+        <v>1.041064477750087</v>
       </c>
       <c r="Z6" t="n">
-        <v>0.7651832959389006</v>
+        <v>0.7521394623883421</v>
       </c>
       <c r="AA6" t="n">
-        <v>0.5451865375578547</v>
+        <v>0.5212250742648459</v>
       </c>
       <c r="AB6" t="n">
-        <v>0.008918128607121137</v>
+        <v>0.003778477126976944</v>
       </c>
     </row>
     <row r="7">
@@ -1020,82 +1020,82 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>1.654334343359755</v>
+        <v>1.665504410580825</v>
       </c>
       <c r="D7" t="n">
-        <v>0.211074182031355</v>
+        <v>0.211168570261618</v>
       </c>
       <c r="E7" t="n">
-        <v>15.7199790767087</v>
+        <v>15.8201150852794</v>
       </c>
       <c r="F7" t="n">
-        <v>0.0739850466504937</v>
+        <v>0.0742254977070636</v>
       </c>
       <c r="G7" t="n">
-        <v>0.833655922685112</v>
+        <v>0.8465472670685854</v>
       </c>
       <c r="H7" t="n">
-        <v>0.211549124224857</v>
+        <v>0.214348897000512</v>
       </c>
       <c r="I7" t="n">
-        <v>1.01313372161629</v>
+        <v>1.013160752272785</v>
       </c>
       <c r="J7" t="n">
-        <v>0.0662893179570304</v>
+        <v>0.06755926919418995</v>
       </c>
       <c r="K7" t="n">
-        <v>0.023277714553709</v>
+        <v>0.02363326220742755</v>
       </c>
       <c r="L7" t="n">
-        <v>0.0055846717113724</v>
+        <v>0.005640903107239695</v>
       </c>
       <c r="M7" t="n">
-        <v>1.08447357037114</v>
+        <v>1.084340354778246</v>
       </c>
       <c r="N7" t="n">
-        <v>0.692712390688359</v>
+        <v>0.6943861400959694</v>
       </c>
       <c r="O7" t="n">
-        <v>0.05323616055991305</v>
+        <v>0.0539603827852801</v>
       </c>
       <c r="P7" t="n">
-        <v>0.8946954660177771</v>
+        <v>0.8951441595265071</v>
       </c>
       <c r="Q7" t="n">
-        <v>2.59196740594455</v>
+        <v>2.61388111975116</v>
       </c>
       <c r="R7" t="n">
-        <v>0.353560768119097</v>
+        <v>0.3590740966748235</v>
       </c>
       <c r="S7" t="n">
-        <v>0.577443800922929</v>
+        <v>0.573345521583092</v>
       </c>
       <c r="T7" t="n">
-        <v>16.83216418144615</v>
+        <v>16.86942434047676</v>
       </c>
       <c r="U7" t="n">
-        <v>1.09240698123457</v>
+        <v>1.091087266562429</v>
       </c>
       <c r="V7" t="n">
-        <v>0.005356411661784885</v>
+        <v>0.005373533439112895</v>
       </c>
       <c r="W7" t="n">
-        <v>2.7040754587628</v>
+        <v>2.741448944770985</v>
       </c>
       <c r="X7" t="n">
-        <v>1.085902901552105</v>
+        <v>1.086547595695935</v>
       </c>
       <c r="Y7" t="n">
-        <v>1.099976034889225</v>
+        <v>1.101586202724175</v>
       </c>
       <c r="Z7" t="n">
-        <v>0.882973067478143</v>
+        <v>0.8784258235086813</v>
       </c>
       <c r="AA7" t="n">
-        <v>0.753496953676308</v>
+        <v>0.7404152516970485</v>
       </c>
       <c r="AB7" t="n">
-        <v>0.0715840822263128</v>
+        <v>0.07531403457452295</v>
       </c>
     </row>
     <row r="8">
@@ -1108,82 +1108,82 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>3.14572801092327</v>
+        <v>3.164107631126087</v>
       </c>
       <c r="D8" t="n">
-        <v>0.3820732491505385</v>
+        <v>0.3936684838571667</v>
       </c>
       <c r="E8" t="n">
-        <v>20.5783118236541</v>
+        <v>21.10017213188445</v>
       </c>
       <c r="F8" t="n">
-        <v>0.1072662859657733</v>
+        <v>0.1078315699609555</v>
       </c>
       <c r="G8" t="n">
-        <v>1.028175234564787</v>
+        <v>1.053924301366134</v>
       </c>
       <c r="H8" t="n">
-        <v>0.343042174999229</v>
+        <v>0.3536759525647252</v>
       </c>
       <c r="I8" t="n">
-        <v>1.02568050523704</v>
+        <v>1.02605976381649</v>
       </c>
       <c r="J8" t="n">
-        <v>0.107095928053708</v>
+        <v>0.1110782243266983</v>
       </c>
       <c r="K8" t="n">
-        <v>0.03841437704002448</v>
+        <v>0.03915585232124205</v>
       </c>
       <c r="L8" t="n">
-        <v>0.009707024432243777</v>
+        <v>0.0101879806059224</v>
       </c>
       <c r="M8" t="n">
-        <v>1.160325290808487</v>
+        <v>1.169114202293264</v>
       </c>
       <c r="N8" t="n">
-        <v>0.7859799901343912</v>
+        <v>0.7891066052464075</v>
       </c>
       <c r="O8" t="n">
-        <v>0.06585944354422721</v>
+        <v>0.06763256412817133</v>
       </c>
       <c r="P8" t="n">
-        <v>1.049240388580567</v>
+        <v>1.050778789088005</v>
       </c>
       <c r="Q8" t="n">
-        <v>3.498727312941392</v>
+        <v>3.685097915337118</v>
       </c>
       <c r="R8" t="n">
-        <v>0.7437688852084613</v>
+        <v>0.7590634107290095</v>
       </c>
       <c r="S8" t="n">
-        <v>0.8365353339799892</v>
+        <v>0.8401944662322798</v>
       </c>
       <c r="T8" t="n">
-        <v>21.43171498527028</v>
+        <v>21.7123503835726</v>
       </c>
       <c r="U8" t="n">
-        <v>1.155133662317085</v>
+        <v>1.162710525002195</v>
       </c>
       <c r="V8" t="n">
-        <v>0.01069749462926827</v>
+        <v>0.01078563525584285</v>
       </c>
       <c r="W8" t="n">
-        <v>7.209419945728998</v>
+        <v>7.35235689389135</v>
       </c>
       <c r="X8" t="n">
-        <v>1.170228512398162</v>
+        <v>1.180791601081177</v>
       </c>
       <c r="Y8" t="n">
-        <v>1.153341833498237</v>
+        <v>1.160768526191692</v>
       </c>
       <c r="Z8" t="n">
-        <v>0.9751556319965056</v>
+        <v>0.9804671397339938</v>
       </c>
       <c r="AA8" t="n">
-        <v>0.916683066415326</v>
+        <v>0.9251137346497653</v>
       </c>
       <c r="AB8" t="n">
-        <v>0.1529435727237295</v>
+        <v>0.1702326837456515</v>
       </c>
     </row>
     <row r="9">
